--- a/NYP_Framework_Week01/App/Maps/DM2213_Map_Level_01_Coloured.xlsx
+++ b/NYP_Framework_Week01/App/Maps/DM2213_Map_Level_01_Coloured.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avxl0\OneDrive\Desktop\School work\Year 2\SP3\SP3\NYP_Framework_Week01\App\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063DBB6D-9A62-4753-9FAA-16875DAB6ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB915A4D-B9D2-4EBC-A408-177CE8C5C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="684" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DM2213_Map_Level_01 - Copy" sheetId="1" r:id="rId1"/>
@@ -679,63 +679,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1133,7 +1077,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1275,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1365,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH2" s="2">
         <v>23</v>
@@ -1379,10 +1323,10 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1469,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH3" s="2">
         <v>22</v>
@@ -1483,10 +1427,10 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1573,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH4" s="2">
         <v>21</v>
@@ -1587,10 +1531,10 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1677,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH5" s="2">
         <v>20</v>
@@ -1691,10 +1635,10 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1781,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH6" s="2">
         <v>19</v>
@@ -1795,10 +1739,10 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1885,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH7" s="2">
         <v>18</v>
@@ -1899,10 +1843,10 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1989,10 +1933,10 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH8" s="2">
         <v>17</v>
@@ -2003,10 +1947,10 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2093,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH9" s="2">
         <v>16</v>
@@ -2107,10 +2051,10 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2197,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH10" s="2">
         <v>15</v>
@@ -2211,10 +2155,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2301,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH11" s="2">
         <v>14</v>
@@ -2315,10 +2259,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2405,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH12" s="2">
         <v>13</v>
@@ -2419,10 +2363,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2509,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH13" s="2">
         <v>12</v>
@@ -2523,10 +2467,10 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2613,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH14" s="2">
         <v>11</v>
@@ -2627,10 +2571,10 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2717,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH15" s="2">
         <v>10</v>
@@ -2731,10 +2675,10 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2821,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH16" s="2">
         <v>9</v>
@@ -2835,10 +2779,10 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2925,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH17" s="2">
         <v>8</v>
@@ -2939,10 +2883,10 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3029,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH18" s="2">
         <v>7</v>
@@ -3043,10 +2987,10 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3133,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH19" s="2">
         <v>6</v>
@@ -3147,10 +3091,10 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3237,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH20" s="2">
         <v>5</v>
@@ -3251,10 +3195,10 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3341,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH21" s="2">
         <v>4</v>
@@ -3355,10 +3299,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3445,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH22" s="2">
         <v>3</v>
@@ -3459,10 +3403,10 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3549,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH23" s="2">
         <v>2</v>
@@ -3563,94 +3507,94 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>100</v>
@@ -3667,94 +3611,94 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>100</v>
@@ -3868,7 +3812,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="B5:L9 N3:S9 U3:AC9 B12:AG25 B10:AC11 AE3:AG11 AD2:AD11">
+  <conditionalFormatting sqref="K9:L9 G2:AG3 J9:J11 J12:M12 G9:I12 S19:T20 S21:U24 B5:C24 U13:U20 B25:U25 D2:F12 D19:R24 D13:T18 AC4:AG9 V11:AC25 AC10 AD10:AG25 K4:AB4 G5:M8 K10:M11 N5:AB10 N11:U12">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -3882,7 +3826,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:L4 M3:M9">
+  <conditionalFormatting sqref="M9 B3:C4 G4:J4">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -3896,7 +3840,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T9 B2:AC2 AE2:AG2">
+  <conditionalFormatting sqref="B2:C2">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>

--- a/NYP_Framework_Week01/App/Maps/DM2213_Map_Level_01_Coloured.xlsx
+++ b/NYP_Framework_Week01/App/Maps/DM2213_Map_Level_01_Coloured.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avxl0\OneDrive\Desktop\School work\Year 2\SP3\SP3\NYP_Framework_Week01\App\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB915A4D-B9D2-4EBC-A408-177CE8C5C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160FE51A-B5DA-4771-9CE8-DF378FC1FF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="684" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DM2213_Map_Level_01 - Copy" sheetId="1" r:id="rId1"/>
@@ -679,35 +679,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1077,7 +1049,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1219,94 +1191,94 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF2">
         <v>100</v>
@@ -1323,94 +1295,94 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF3">
         <v>100</v>
@@ -1427,10 +1399,10 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1517,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="2">
         <v>21</v>
@@ -1531,10 +1503,10 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1621,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="2">
         <v>20</v>
@@ -1635,10 +1607,10 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1725,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="2">
         <v>19</v>
@@ -1739,10 +1711,10 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1829,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="2">
         <v>18</v>
@@ -1843,10 +1815,10 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1870,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1894,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1918,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1933,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="2">
         <v>17</v>
@@ -1947,10 +1919,10 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1974,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1998,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2022,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2037,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="2">
         <v>16</v>
@@ -2051,10 +2023,10 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2078,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2102,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2126,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2141,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="2">
         <v>15</v>
@@ -2155,10 +2127,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2182,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2206,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2230,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2245,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="2">
         <v>14</v>
@@ -2259,10 +2231,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2274,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2298,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2322,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -2349,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="2">
         <v>13</v>
@@ -2363,10 +2335,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2378,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2402,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2426,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -2453,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="2">
         <v>12</v>
@@ -2467,10 +2439,10 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2482,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2506,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2530,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -2557,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="2">
         <v>11</v>
@@ -2571,10 +2543,10 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2586,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2610,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2634,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2661,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="2">
         <v>10</v>
@@ -2675,10 +2647,10 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2765,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="2">
         <v>9</v>
@@ -2779,10 +2751,10 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2806,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2830,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2854,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2869,10 +2841,10 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="2">
         <v>8</v>
@@ -2883,10 +2855,10 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2910,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2934,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2958,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2973,10 +2945,10 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="2">
         <v>7</v>
@@ -2987,10 +2959,10 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3014,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3038,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3062,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -3077,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="2">
         <v>6</v>
@@ -3091,10 +3063,10 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3118,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3142,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -3166,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -3181,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="2">
         <v>5</v>
@@ -3195,10 +3167,10 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3285,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="2">
         <v>4</v>
@@ -3299,10 +3271,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3389,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="2">
         <v>3</v>
@@ -3403,10 +3375,10 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3493,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="2">
         <v>2</v>
@@ -3507,94 +3479,94 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF24">
         <v>100</v>
@@ -3611,94 +3583,94 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF25">
         <v>100</v>
@@ -3812,45 +3784,31 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="K9:L9 G2:AG3 J9:J11 J12:M12 G9:I12 S19:T20 S21:U24 B5:C24 U13:U20 B25:U25 D2:F12 D19:R24 D13:T18 AC4:AG9 V11:AC25 AC10 AD10:AG25 K4:AB4 G5:M8 K10:M11 N5:AB10 N11:U12">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+  <conditionalFormatting sqref="L9 B5:C24 B25:I25 L10:M12 N9:R10 V21:AG25 T12:U20 D23:I24 D21:O22 J24:U25 D3:I4 M2:AG4 D5:H7 D8:G10 D11:F13 J12:J13 D14:E16 D17:D19 J23:O23 S21:U23 N11:O11 Q11:R11 D20:I20 L20:O20 P11:P14 N12 I14:J16 L8:R8 T8:W11 S12:S16 V12:V15 L5:AG7 X8:Z15 V16:Z20 AB8:AG20 AA12:AA16 L16:O16 L13:N15 K12:K16">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9 B3:C4 G4:J4">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="M9 B3:C4">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>300</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>

--- a/NYP_Framework_Week01/App/Maps/DM2213_Map_Level_01_Coloured.xlsx
+++ b/NYP_Framework_Week01/App/Maps/DM2213_Map_Level_01_Coloured.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avxl0\OneDrive\Desktop\School work\Year 2\SP3\SP3\NYP_Framework_Week01\App\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063DBB6D-9A62-4753-9FAA-16875DAB6ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160FE51A-B5DA-4771-9CE8-DF378FC1FF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DM2213_Map_Level_01 - Copy" sheetId="1" r:id="rId1"/>
@@ -679,91 +679,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1133,7 +1049,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1281,94 +1197,94 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH2" s="2">
         <v>23</v>
@@ -1385,94 +1301,94 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH3" s="2">
         <v>22</v>
@@ -1926,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1950,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1974,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -2030,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2054,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2078,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2134,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2158,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2182,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2238,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2262,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2286,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2330,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2354,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2378,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -2434,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2458,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2482,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -2538,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2562,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2586,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -2642,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2666,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2690,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2862,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2886,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2910,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2966,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2990,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -3014,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -3070,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3094,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3118,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -3174,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3198,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -3222,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -3868,45 +3784,31 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="B5:L9 N3:S9 U3:AC9 B12:AG25 B10:AC11 AE3:AG11 AD2:AD11">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+  <conditionalFormatting sqref="L9 B5:C24 B25:I25 L10:M12 N9:R10 V21:AG25 T12:U20 D23:I24 D21:O22 J24:U25 D3:I4 M2:AG4 D5:H7 D8:G10 D11:F13 J12:J13 D14:E16 D17:D19 J23:O23 S21:U23 N11:O11 Q11:R11 D20:I20 L20:O20 P11:P14 N12 I14:J16 L8:R8 T8:W11 S12:S16 V12:V15 L5:AG7 X8:Z15 V16:Z20 AB8:AG20 AA12:AA16 L16:O16 L13:N15 K12:K16">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:L4 M3:M9">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="M9 B3:C4">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T9 B2:AC2 AE2:AG2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>300</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
